--- a/impdata/Data/DrugData_v03.xlsx
+++ b/impdata/Data/DrugData_v03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55FF037F-7ACE-498C-B277-F717A6E94D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F18CE4-F5EC-4142-99C9-ADC044BAACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{33990AB3-03F3-4329-A79F-AB5C7664C830}"/>
   </bookViews>
@@ -8846,10 +8846,10 @@
   <dimension ref="A1:AG239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -14182,7 +14182,7 @@
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>2787</v>
+        <v>786</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -14194,58 +14194,75 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>2786</v>
+        <v>2293</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J86" t="s">
+        <v>2253</v>
       </c>
       <c r="M86" t="s">
         <v>2151</v>
       </c>
       <c r="N86" t="s">
-        <v>2152</v>
+        <v>2294</v>
       </c>
       <c r="O86" t="s">
-        <v>1989</v>
+        <v>2295</v>
       </c>
       <c r="P86" t="s">
-        <v>1989</v>
+        <v>2296</v>
       </c>
       <c r="Q86" t="s">
-        <v>1989</v>
+        <v>2297</v>
+      </c>
+      <c r="R86" t="s">
+        <v>2598</v>
+      </c>
+      <c r="S86" t="s">
+        <v>2155</v>
+      </c>
+      <c r="T86" t="s">
+        <v>2298</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>2793</v>
+        <v>787</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>2790</v>
-      </c>
-      <c r="W86" s="6" t="s">
-        <v>2789</v>
-      </c>
-      <c r="X86" s="2">
-        <v>54675777</v>
-      </c>
-      <c r="Y86" s="2">
-        <v>10469370</v>
+        <v>788</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="Y86" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="Z86" t="s">
-        <v>2791</v>
+        <v>792</v>
       </c>
       <c r="AA86" s="2" t="s">
-        <v>2792</v>
+        <v>793</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>2794</v>
+        <v>794</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>2795</v>
-      </c>
-      <c r="AD86" s="2"/>
+        <v>795</v>
+      </c>
+      <c r="AD86" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="AE86" t="s">
-        <v>2788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>786</v>
+        <v>2787</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -14257,70 +14274,53 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>2293</v>
-      </c>
-      <c r="I87" t="s">
-        <v>2671</v>
-      </c>
-      <c r="J87" t="s">
-        <v>2253</v>
+        <v>2786</v>
       </c>
       <c r="M87" t="s">
         <v>2151</v>
       </c>
       <c r="N87" t="s">
-        <v>2294</v>
+        <v>2152</v>
       </c>
       <c r="O87" t="s">
-        <v>2295</v>
+        <v>1989</v>
       </c>
       <c r="P87" t="s">
-        <v>2296</v>
+        <v>1989</v>
       </c>
       <c r="Q87" t="s">
-        <v>2297</v>
-      </c>
-      <c r="R87" t="s">
-        <v>2598</v>
-      </c>
-      <c r="S87" t="s">
-        <v>2155</v>
-      </c>
-      <c r="T87" t="s">
-        <v>2298</v>
+        <v>1989</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>787</v>
+        <v>2793</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="X87" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="Y87" s="2" t="s">
-        <v>791</v>
+        <v>2790</v>
+      </c>
+      <c r="W87" s="6" t="s">
+        <v>2789</v>
+      </c>
+      <c r="X87" s="2">
+        <v>54675777</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>10469370</v>
       </c>
       <c r="Z87" t="s">
-        <v>792</v>
+        <v>2791</v>
       </c>
       <c r="AA87" s="2" t="s">
-        <v>793</v>
+        <v>2792</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>794</v>
+        <v>2794</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="AD87" s="2" t="s">
-        <v>796</v>
-      </c>
+        <v>2795</v>
+      </c>
+      <c r="AD87" s="2"/>
       <c r="AE87" t="s">
-        <v>797</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.25">
@@ -15679,7 +15679,7 @@
     </row>
     <row r="108" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>1011</v>
+        <v>2771</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -15688,61 +15688,33 @@
         <v>1</v>
       </c>
       <c r="E108" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>2772</v>
       </c>
       <c r="G108" t="s">
-        <v>2354</v>
+        <v>2771</v>
       </c>
       <c r="M108" t="s">
-        <v>2151</v>
-      </c>
-      <c r="N108" t="s">
-        <v>2300</v>
-      </c>
-      <c r="O108" t="s">
-        <v>2301</v>
-      </c>
-      <c r="P108" t="s">
-        <v>2305</v>
+        <v>2774</v>
       </c>
       <c r="Q108" t="s">
-        <v>2305</v>
-      </c>
-      <c r="U108" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="V108" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="W108" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="X108" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="Y108" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AA108" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AB108" s="2" t="s">
-        <v>1019</v>
-      </c>
+        <v>2773</v>
+      </c>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
-      <c r="AD108" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>1021</v>
-      </c>
+      <c r="AD108" s="2"/>
     </row>
     <row r="109" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -15754,7 +15726,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="M109" t="s">
         <v>2151</v>
@@ -15765,44 +15737,47 @@
       <c r="O109" t="s">
         <v>2301</v>
       </c>
+      <c r="P109" t="s">
+        <v>2305</v>
+      </c>
       <c r="Q109" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
       <c r="U109" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="V109" s="2"/>
+        <v>1012</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>1013</v>
+      </c>
       <c r="W109" s="2" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="Y109" s="2" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="Z109" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="AA109" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="AB109" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AC109" s="2" t="s">
-        <v>1030</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="AC109" s="2"/>
       <c r="AD109" s="2" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="AE109" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="110" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
@@ -15813,50 +15788,56 @@
       <c r="E110" s="2">
         <v>0</v>
       </c>
+      <c r="G110" t="s">
+        <v>2355</v>
+      </c>
       <c r="M110" t="s">
         <v>2151</v>
       </c>
       <c r="N110" t="s">
-        <v>2152</v>
+        <v>2300</v>
       </c>
       <c r="O110" t="s">
-        <v>1989</v>
-      </c>
-      <c r="P110" t="s">
-        <v>1989</v>
+        <v>2301</v>
       </c>
       <c r="Q110" t="s">
-        <v>1989</v>
+        <v>2301</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="V110" s="2"/>
       <c r="W110" s="2" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="Z110" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="AA110" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
+        <v>1028</v>
+      </c>
+      <c r="AB110" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AC110" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AD110" s="2" t="s">
+        <v>1031</v>
+      </c>
       <c r="AE110" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="111" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -15867,77 +15848,50 @@
       <c r="E111" s="2">
         <v>0</v>
       </c>
-      <c r="G111" t="s">
-        <v>2356</v>
-      </c>
-      <c r="H111" t="s">
-        <v>2357</v>
-      </c>
-      <c r="I111" t="s">
-        <v>2671</v>
-      </c>
-      <c r="J111" t="s">
-        <v>2159</v>
-      </c>
       <c r="M111" t="s">
         <v>2151</v>
       </c>
       <c r="N111" t="s">
-        <v>2160</v>
+        <v>2152</v>
       </c>
       <c r="O111" t="s">
-        <v>2161</v>
+        <v>1989</v>
       </c>
       <c r="P111" t="s">
-        <v>2349</v>
+        <v>1989</v>
       </c>
       <c r="Q111" t="s">
-        <v>2349</v>
-      </c>
-      <c r="R111" t="s">
-        <v>2605</v>
-      </c>
-      <c r="S111" t="s">
-        <v>2231</v>
-      </c>
-      <c r="T111" t="s">
-        <v>2358</v>
+        <v>1989</v>
       </c>
       <c r="U111" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="V111" s="2" t="s">
-        <v>1043</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="V111" s="2"/>
       <c r="W111" s="2" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="Z111" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="AA111" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AB111" s="2" t="s">
-        <v>1049</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
-      <c r="AD111" s="2" t="s">
-        <v>1050</v>
-      </c>
+      <c r="AD111" s="2"/>
       <c r="AE111" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="112" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -15949,72 +15903,76 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>2359</v>
+        <v>2356</v>
+      </c>
+      <c r="H112" t="s">
+        <v>2357</v>
       </c>
       <c r="I112" t="s">
-        <v>2674</v>
+        <v>2671</v>
+      </c>
+      <c r="J112" t="s">
+        <v>2159</v>
       </c>
       <c r="M112" t="s">
         <v>2151</v>
       </c>
       <c r="N112" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="O112" t="s">
-        <v>2192</v>
+        <v>2161</v>
       </c>
       <c r="P112" t="s">
-        <v>2193</v>
+        <v>2349</v>
       </c>
       <c r="Q112" t="s">
-        <v>2193</v>
+        <v>2349</v>
       </c>
       <c r="R112" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="S112" t="s">
-        <v>2180</v>
+        <v>2231</v>
       </c>
       <c r="T112" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="V112" s="2" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="Y112" s="2" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="Z112" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="AA112" s="2" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="AB112" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AC112" s="2" t="s">
-        <v>1061</v>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="AC112" s="2"/>
       <c r="AD112" s="2" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="AE112" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="113" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
@@ -16023,10 +15981,40 @@
         <v>1</v>
       </c>
       <c r="E113" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2359</v>
+      </c>
+      <c r="I113" t="s">
+        <v>2674</v>
+      </c>
+      <c r="M113" t="s">
+        <v>2151</v>
+      </c>
+      <c r="N113" t="s">
+        <v>2152</v>
+      </c>
+      <c r="O113" t="s">
+        <v>2192</v>
+      </c>
+      <c r="P113" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>2193</v>
+      </c>
+      <c r="R113" t="s">
+        <v>2606</v>
+      </c>
+      <c r="S113" t="s">
+        <v>2180</v>
+      </c>
+      <c r="T113" t="s">
+        <v>2360</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="V113" s="2" t="s">
         <v>1054</v>
@@ -16056,12 +16044,12 @@
         <v>1062</v>
       </c>
       <c r="AE113" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="114" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -16073,34 +16061,42 @@
         <v>1</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="V114" s="2"/>
+        <v>1066</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>1054</v>
+      </c>
       <c r="W114" s="2" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="Y114" s="2" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="Z114" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AA114" s="2"/>
+        <v>1058</v>
+      </c>
+      <c r="AA114" s="2" t="s">
+        <v>1059</v>
+      </c>
       <c r="AB114" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
+        <v>1060</v>
+      </c>
+      <c r="AC114" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AD114" s="2" t="s">
+        <v>1062</v>
+      </c>
       <c r="AE114" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="115" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>2771</v>
+        <v>1067</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
@@ -16111,27 +16107,31 @@
       <c r="E115" s="2">
         <v>1</v>
       </c>
-      <c r="F115" t="s">
-        <v>2772</v>
-      </c>
-      <c r="G115" t="s">
-        <v>2771</v>
-      </c>
-      <c r="M115" t="s">
-        <v>2774</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>2773</v>
-      </c>
-      <c r="U115" s="2"/>
+      <c r="U115" s="2" t="s">
+        <v>1068</v>
+      </c>
       <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
+      <c r="W115" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="X115" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Y115" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>1072</v>
+      </c>
       <c r="AA115" s="2"/>
-      <c r="AB115" s="2"/>
+      <c r="AB115" s="2" t="s">
+        <v>1073</v>
+      </c>
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
+      <c r="AE115" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="116" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
@@ -23502,6 +23502,7 @@
   <autoFilter ref="A1:AG239" xr:uid="{CEFE4497-3E92-43AC-9CE8-E0A96E9E7852}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG239">
     <sortCondition ref="B2:B239"/>
+    <sortCondition ref="C2:C239"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
